--- a/ECUPrototypeIO/ECUPrototypeIO/Drive-By-Wire-I.O.xlsx
+++ b/ECUPrototypeIO/ECUPrototypeIO/Drive-By-Wire-I.O.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sleven/Documents/SVC-Circuits/ECUPrototypeIO/ECUPrototypeIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3CBB22F-EFB7-2D46-8CD3-7E74307B01FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF513DA-EADD-714E-A206-3C3E61181D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{C3E43CB0-A3B5-054E-A962-3CD07BDEA7C6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Signal Name</t>
   </si>
@@ -47,18 +47,12 @@
     <t>Main Relay</t>
   </si>
   <si>
-    <t>Associated Relay(s)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Function </t>
   </si>
   <si>
     <t>SafetyLight1Enable</t>
   </si>
   <si>
-    <t>GPIO</t>
-  </si>
-  <si>
     <t>SafetyLight2Enable</t>
   </si>
   <si>
@@ -93,6 +87,84 @@
   </si>
   <si>
     <t>PWM</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Turns on Safety Lights 2</t>
+  </si>
+  <si>
+    <t>Switching Mosfet (Mosfet A)</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>RC Filter and Non-Inverting OP Amp</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Controls Acceleration of GEM through conversion of PWM to boosted Analog signal</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failsafe signal to car to allow command of acceleration </t>
+  </si>
+  <si>
+    <t>Failsafe signal to car to allow command of steering motor</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Test and Validate OP-Amp Gain</t>
+  </si>
+  <si>
+    <t>Controls Direction of motor rotation (CCW or CW)</t>
+  </si>
+  <si>
+    <t>Confirm Relay State for CW and CCW</t>
+  </si>
+  <si>
+    <t>Confirm Mosfet state for Enable On/Off</t>
+  </si>
+  <si>
+    <t>ESTOP</t>
+  </si>
+  <si>
+    <t>GPI</t>
+  </si>
+  <si>
+    <t>GPO</t>
+  </si>
+  <si>
+    <t>Secondary Relay(s)</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Detect State of ESTOPs and Drive 'SafetyLight Enable1' to low if low signal is sent</t>
+  </si>
+  <si>
+    <t>Control Duty Cycle to Steering Driver</t>
+  </si>
+  <si>
+    <t>Voltage Divider</t>
+  </si>
+  <si>
+    <t>V-Divder was inverted by mistake (To be fixed)</t>
   </si>
 </sst>
 </file>
@@ -453,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A4A3FC-1EC0-2741-962A-92D3E7A482BA}">
-  <dimension ref="B3:H10"/>
+  <dimension ref="B3:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,8 +538,8 @@
     <col min="4" max="4" width="34.1640625" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70" customWidth="1"/>
+    <col min="8" max="8" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
@@ -484,84 +556,188 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/ECUPrototypeIO/ECUPrototypeIO/Drive-By-Wire-I.O.xlsx
+++ b/ECUPrototypeIO/ECUPrototypeIO/Drive-By-Wire-I.O.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sleven/Documents/SVC-Circuits/ECUPrototypeIO/ECUPrototypeIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF513DA-EADD-714E-A206-3C3E61181D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636FC4BB-1B22-A943-9C58-42F4E1456592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{C3E43CB0-A3B5-054E-A962-3CD07BDEA7C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Roadmap" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
   <si>
     <t>Signal Name</t>
   </si>
@@ -107,9 +108,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>Controls Acceleration of GEM through conversion of PWM to boosted Analog signal</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -165,6 +163,57 @@
   </si>
   <si>
     <t>V-Divder was inverted by mistake (To be fixed)</t>
+  </si>
+  <si>
+    <t>Brake</t>
+  </si>
+  <si>
+    <t>ReverseControl_Red</t>
+  </si>
+  <si>
+    <t>ReverseControl_Blue</t>
+  </si>
+  <si>
+    <t>SteeringEncoderA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SteeringEncoderB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage Divider </t>
+  </si>
+  <si>
+    <t>Vehicle Speed</t>
+  </si>
+  <si>
+    <t>Low Pass Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None </t>
+  </si>
+  <si>
+    <t>Activate Brakes, Duty Cycles vary depending on scenario</t>
+  </si>
+  <si>
+    <t>Controls Reverse, not fully sure on logic</t>
+  </si>
+  <si>
+    <t>Need to figure out full logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port </t>
+  </si>
+  <si>
+    <t>Controls Acceleration of vehicle through conversion of PWM to boosted Analog signal</t>
+  </si>
+  <si>
+    <t>Measures rotation of Steering motor</t>
+  </si>
+  <si>
+    <t>Measure Vehicle Speed</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -181,7 +230,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -196,7 +245,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -204,13 +253,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,219 +723,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A4A3FC-1EC0-2741-962A-92D3E7A482BA}">
-  <dimension ref="B3:H11"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="70" customWidth="1"/>
-    <col min="8" max="8" width="40.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="39.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE04125-C155-D847-BD68-9E4D53FB4D5A}">
+  <dimension ref="C4:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
